--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="56.98988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="56.98988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-01-08T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1380356</v>
       </c>
@@ -1102,120 +1621,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>36882</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>CRSU1017956</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2018-01-08T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>329</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1380356</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>36883</v>
@@ -1327,7 +1767,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>36884</v>
@@ -1439,7 +1879,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>36885</v>
@@ -1551,7 +1991,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>36886</v>
@@ -1662,120 +2102,41 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>36886</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>CRSU1099759</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="d">
-        <v>2018-01-09T00:00:00</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0" t="n">
-        <v>328</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="0" t="n">
-        <v>1380782</v>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37249</v>
@@ -1886,232 +2247,74 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>37249</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>HJCU2031852</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-08-09T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1465518</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL CUT 2"</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>37249</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>HJCU2031852</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-08-09T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1465518</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>37680</v>
@@ -2223,7 +2426,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>37681</v>
@@ -2334,120 +2537,41 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>37681</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>TGHU3570410</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>OEL BANGLADESH</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M18" s="4" t="d">
-        <v>2018-09-02T00:00:00</v>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
       <c r="O18" s="0"/>
-      <c r="P18" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="0" t="n">
-        <v>1473811</v>
-      </c>
-      <c r="W18" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y18" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD PLYWOOD BROKEN 24'X10'</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>37682</v>
@@ -2559,7 +2683,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>37686</v>
@@ -2671,7 +2795,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>37687</v>
@@ -2783,7 +2907,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>37689</v>
@@ -2871,7 +2995,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>36887</v>
@@ -2983,7 +3107,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>36891</v>
@@ -3094,120 +3218,41 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>36891</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>CRXU3432053</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t>MV. SEA MASTER</t>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t>2018/286</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-02-07T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>299</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1391995</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>36892</v>
@@ -3319,7 +3364,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>36893</v>
@@ -3430,120 +3475,41 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>36893</v>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>CXDU1054358</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J28" s="0" t="inlineStr">
-        <is>
-          <t>MV. SEA MASTER</t>
-        </is>
-      </c>
-      <c r="K28" s="0" t="inlineStr">
-        <is>
-          <t>2018/286</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N28" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
       <c r="O28" s="0"/>
-      <c r="P28" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="0" t="n">
-        <v>1392397</v>
-      </c>
-      <c r="W28" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCK BAR TOP &amp; BOTTOM KEEPER BENT 4 PCS</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>36894</v>
@@ -3654,120 +3620,41 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>36894</v>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>CRSU1182966</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>MV. SEA MASTER</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>2018/286</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="0" t="n">
-        <v>1392406</v>
-      </c>
-      <c r="W30" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>36947</v>
@@ -3878,232 +3765,74 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>36947</v>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>GESU3536286</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M32" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N32" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
       <c r="O32" s="0"/>
-      <c r="P32" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="0" t="n">
-        <v>1428193</v>
-      </c>
-      <c r="W32" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>36947</v>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>GESU3536286</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K33" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M33" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N33" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
       <c r="O33" s="0"/>
-      <c r="P33" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="0" t="n">
-        <v>1428193</v>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL CUT 4"X4"</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>36948</v>
@@ -4214,120 +3943,41 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>36948</v>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>GESU3399239</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="0" t="n">
-        <v>1428197</v>
-      </c>
-      <c r="W35" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>36949</v>
@@ -4438,120 +4088,41 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>36949</v>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>GESU3986283</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K37" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="0" t="n">
-        <v>1428198</v>
-      </c>
-      <c r="W37" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>36950</v>
@@ -4662,120 +4233,41 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>36950</v>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>GESU3516490</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E39" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G39" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H39" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I39" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J39" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K39" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L39" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N39" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="0"/>
       <c r="O39" s="0"/>
-      <c r="P39" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="0" t="n">
-        <v>1428296</v>
-      </c>
-      <c r="W39" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0"/>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y39" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>36951</v>
@@ -4886,120 +4378,41 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>36951</v>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>GESU3536537</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K41" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
       <c r="O41" s="0"/>
-      <c r="P41" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="0" t="n">
-        <v>1428297</v>
-      </c>
-      <c r="W41" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>36952</v>
@@ -5111,7 +4524,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>36953</v>
@@ -5222,120 +4635,41 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>36953</v>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>GESU3469676</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K44" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M44" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
       <c r="O44" s="0"/>
-      <c r="P44" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="0" t="n">
-        <v>1428303</v>
-      </c>
-      <c r="W44" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>36954</v>
@@ -5447,7 +4781,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>36955</v>
@@ -5558,120 +4892,41 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>36955</v>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>GESU3583966</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J47" s="0" t="inlineStr">
-        <is>
-          <t>MV. HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="K47" s="0" t="inlineStr">
-        <is>
-          <t>2018/1454</t>
-        </is>
-      </c>
-      <c r="L47" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M47" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N47" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
       <c r="O47" s="0"/>
-      <c r="P47" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="0" t="n">
-        <v>1428309</v>
-      </c>
-      <c r="W47" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y47" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>36986</v>
@@ -5783,7 +5038,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>38097</v>

--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="256.0898876404495" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="56.98988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,37 +1621,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -2102,37 +2081,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -2247,70 +2205,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL CUT 2"</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -2537,37 +2453,16 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PLYWOOD BROKEN 24'X10'</t>
-        </is>
-      </c>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PLYWOOD BROKEN 24'X10'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
@@ -3218,37 +3113,16 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -3475,37 +3349,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCK BAR TOP &amp; BOTTOM KEEPER BENT 4 PCS</t>
-        </is>
-      </c>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR TOP &amp; BOTTOM KEEPER BENT 4 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
@@ -3620,37 +3473,16 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -3765,70 +3597,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CUT 4"X4"</t>
-        </is>
-      </c>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CUT 4\"X4\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
@@ -3943,37 +3733,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -4088,37 +3857,16 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -4233,37 +3981,16 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="0"/>
-      <c r="L39" s="0"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
-      <c r="S39" s="0"/>
-      <c r="T39" s="0"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="0"/>
-      <c r="W39" s="0"/>
-      <c r="X39" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0"/>
-      <c r="AA39" s="0"/>
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
@@ -4378,37 +4105,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -4635,37 +4341,16 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="0"/>
-      <c r="O44" s="0"/>
-      <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-      <c r="R44" s="0"/>
-      <c r="S44" s="0"/>
-      <c r="T44" s="0"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
@@ -4892,37 +4577,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">

--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="256.0898876404495" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="56.98988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2086,9 +2132,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2210,9 +2302,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\"", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL CUT 2"</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2222,9 +2360,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2458,9 +2642,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PLYWOOD BROKEN 24'X10'", "", "", ""]</t>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PLYWOOD BROKEN 24'X10'</t>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3118,9 +3348,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS,", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3354,9 +3630,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR TOP &amp; BOTTOM KEEPER BENT 4 PCS", "", "", ""]</t>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y28" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCK BAR TOP &amp; BOTTOM KEEPER BENT 4 PCS</t>
+        </is>
+      </c>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3478,9 +3800,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3602,9 +3970,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3614,9 +4028,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CUT 4\"X4\"", "", "", ""]</t>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CUT 4"X4"</t>
+        </is>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3738,9 +4198,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3862,9 +4368,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3986,9 +4538,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X39" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y39" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z39" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA39" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB39" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4110,9 +4708,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4346,9 +4990,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X44" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y44" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB44" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4582,9 +5272,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X47" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y47" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB47" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_52_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:28</t>
+          <t>Total number of containers:28</t>
         </is>
       </c>
     </row>
